--- a/Packet/PacketData/Notice.xlsx
+++ b/Packet/PacketData/Notice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="チャット送信" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="通知データ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="通知リスト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="通知" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -202,7 +202,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -353,7 +353,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Notice.xlsx
+++ b/Packet/PacketData/Notice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通知データ" sheetId="1" state="visible" r:id="rId2"/>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">NoticeData.h</t>
   </si>
   <si>
-    <t xml:space="preserve">FlexArray,h</t>
+    <t xml:space="preserve">FlexArray.h</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray&lt;NoticeData&gt;</t>
@@ -202,7 +202,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -272,8 +272,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Notice.xlsx
+++ b/Packet/PacketData/Notice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="通知データ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">CustomerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
     <t xml:space="preserve">PacketNoticeList</t>
@@ -200,10 +206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,6 +260,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -272,7 +289,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -288,39 +305,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -329,10 +346,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -369,31 +386,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Notice.xlsx
+++ b/Packet/PacketData/Notice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通知データ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">PartyInvide</t>
   </si>
   <si>
+    <t xml:space="preserve">パーティ勧誘</t>
+  </si>
+  <si>
     <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
@@ -48,18 +51,27 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">タイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">CustomerId</t>
   </si>
   <si>
+    <t xml:space="preserve">カスタマＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">std::string</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketNoticeList</t>
   </si>
   <si>
@@ -90,6 +102,9 @@
     <t xml:space="preserve">Notices</t>
   </si>
   <si>
+    <t xml:space="preserve">通知リスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketReceiveNotice</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">Notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通知データ</t>
   </si>
 </sst>
 </file>
@@ -206,10 +224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,38 +255,50 @@
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -287,10 +317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,51 +335,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -368,10 +401,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,42 +419,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
